--- a/data/DB_heatmap_one_session_251204.xlsx
+++ b/data/DB_heatmap_one_session_251204.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lican\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/luis_david_paredes_pe_ey_com/Documents/Karolinska Institute/Heatmap/Karolinska-Institutet/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D10DBB-17AF-4628-A35A-30DD110B7011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C3D10DBB-17AF-4628-A35A-30DD110B7011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F26BB05-D331-400F-BF6E-2CB47B1D95FD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD2A83AD-55BA-4B3C-A2D3-53CF278A9A6A}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{AD2A83AD-55BA-4B3C-A2D3-53CF278A9A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4239" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4236" uniqueCount="266">
   <si>
     <t>Patient</t>
   </si>
@@ -892,7 +892,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1210,13 +1210,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EB7F64-D164-4538-9223-C25166E61DC7}">
   <dimension ref="A1:AE638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X398" sqref="X398:X439"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>5.1599999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>5.1599999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>5.1599999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>5.1599999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>5.0249999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>5.0249999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>5.0249999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>5.0249999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>4.7249999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>4.7249999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>4.7249999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>5.9849999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>5.9849999999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>5.5650000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>5.5650000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>5.5650000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>4.6049999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>4.6049999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>4.6049999999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>4.6049999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>4.9050000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>4.9050000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>4.9050000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>4.9050000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>4.6499999999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>4.6499999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>6.1499999999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>6.1499999999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>6.1499999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>78</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>5.4749999999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>79</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>5.4749999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>80</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>80</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>81</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>81</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>81</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>82</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>82</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>82</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>82</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>83</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>5.4749999999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>83</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>5.4749999999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>84</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>5.085</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>84</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>5.085</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>84</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>5.085</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>85</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>87</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>88</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>88</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>89</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>89</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>89</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>90</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>90</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>91</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>91</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>91</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>92</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>92</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>92</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>92</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>93</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>93</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>93</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>93</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>94</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>94</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>94</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>94</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>96</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>96</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>96</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>97</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>97</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>97</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>97</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>98</v>
       </c>
@@ -13529,7 +13529,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>98</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>98</v>
       </c>
@@ -13689,7 +13689,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>98</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>100</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>100</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>101</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>101</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>102</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>102</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>102</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>102</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>103</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>5.7749999999999995</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>103</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>5.7749999999999995</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>103</v>
       </c>
@@ -14757,7 +14757,7 @@
         <v>5.7749999999999995</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>104</v>
       </c>
@@ -14849,7 +14849,7 @@
         <v>5.6099999999999994</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>104</v>
       </c>
@@ -14941,7 +14941,7 @@
         <v>5.6099999999999994</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>104</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>5.6099999999999994</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>104</v>
       </c>
@@ -15125,7 +15125,7 @@
         <v>5.6099999999999994</v>
       </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>105</v>
       </c>
@@ -15208,7 +15208,7 @@
         <v>4.919999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>105</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>4.919999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>105</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>4.919999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>105</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>4.919999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>106</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>106</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>106</v>
       </c>
@@ -15688,7 +15688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>106</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>107</v>
       </c>
@@ -15836,7 +15836,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>107</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>108</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>108</v>
       </c>
@@ -16097,7 +16097,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>108</v>
       </c>
@@ -16192,7 +16192,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>108</v>
       </c>
@@ -16287,7 +16287,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>109</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>109</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>109</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>109</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>111</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>111</v>
       </c>
@@ -16791,7 +16791,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>111</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>112</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>112</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>114</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>114</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>116</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>5.1150000000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>116</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>5.1150000000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>116</v>
       </c>
@@ -17467,7 +17467,7 @@
         <v>5.1150000000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>116</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>5.1150000000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>117</v>
       </c>
@@ -17630,7 +17630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>117</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>117</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>117</v>
       </c>
@@ -17861,7 +17861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>118</v>
       </c>
@@ -17953,7 +17953,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>118</v>
       </c>
@@ -18045,7 +18045,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>118</v>
       </c>
@@ -18137,7 +18137,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>118</v>
       </c>
@@ -18229,7 +18229,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>121</v>
       </c>
@@ -18315,7 +18315,7 @@
         <v>4.919999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>121</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>4.919999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>121</v>
       </c>
@@ -18487,7 +18487,7 @@
         <v>4.919999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>121</v>
       </c>
@@ -18573,7 +18573,7 @@
         <v>4.919999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>122</v>
       </c>
@@ -18656,7 +18656,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>122</v>
       </c>
@@ -18739,7 +18739,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>122</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>122</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>124</v>
       </c>
@@ -18982,7 +18982,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>124</v>
       </c>
@@ -19059,7 +19059,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>124</v>
       </c>
@@ -19136,7 +19136,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>124</v>
       </c>
@@ -19213,7 +19213,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>125</v>
       </c>
@@ -19299,7 +19299,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>125</v>
       </c>
@@ -19385,7 +19385,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>125</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>125</v>
       </c>
@@ -19557,7 +19557,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>126</v>
       </c>
@@ -19652,7 +19652,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>126</v>
       </c>
@@ -19747,7 +19747,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>126</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>127</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>4.9949999999999992</v>
       </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>127</v>
       </c>
@@ -20026,7 +20026,7 @@
         <v>4.9949999999999992</v>
       </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>128</v>
       </c>
@@ -20121,7 +20121,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>128</v>
       </c>
@@ -20216,7 +20216,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>129</v>
       </c>
@@ -20311,7 +20311,7 @@
         <v>4.7249999999999996</v>
       </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>129</v>
       </c>
@@ -20406,7 +20406,7 @@
         <v>4.7249999999999996</v>
       </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>129</v>
       </c>
@@ -20501,7 +20501,7 @@
         <v>4.7249999999999996</v>
       </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>129</v>
       </c>
@@ -20596,7 +20596,7 @@
         <v>4.7249999999999996</v>
       </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>130</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>5.0699999999999994</v>
       </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>130</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>5.0699999999999994</v>
       </c>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>130</v>
       </c>
@@ -20881,7 +20881,7 @@
         <v>5.0699999999999994</v>
       </c>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>131</v>
       </c>
@@ -20973,7 +20973,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>131</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>131</v>
       </c>
@@ -21157,7 +21157,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>132</v>
       </c>
@@ -21249,7 +21249,7 @@
         <v>5.1449999999999996</v>
       </c>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>132</v>
       </c>
@@ -21341,7 +21341,7 @@
         <v>5.1449999999999996</v>
       </c>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>133</v>
       </c>
@@ -21412,7 +21412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>133</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>134</v>
       </c>
@@ -21560,7 +21560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>134</v>
       </c>
@@ -21637,7 +21637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>134</v>
       </c>
@@ -21714,7 +21714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>134</v>
       </c>
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>135</v>
       </c>
@@ -21883,7 +21883,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>135</v>
       </c>
@@ -21975,7 +21975,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>135</v>
       </c>
@@ -22067,7 +22067,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>136</v>
       </c>
@@ -22159,7 +22159,7 @@
         <v>5.835</v>
       </c>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>136</v>
       </c>
@@ -22251,7 +22251,7 @@
         <v>5.835</v>
       </c>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>136</v>
       </c>
@@ -22343,7 +22343,7 @@
         <v>5.835</v>
       </c>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>136</v>
       </c>
@@ -22435,7 +22435,7 @@
         <v>5.835</v>
       </c>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>137</v>
       </c>
@@ -22506,7 +22506,7 @@
         <v>5.4749999999999996</v>
       </c>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>137</v>
       </c>
@@ -22577,7 +22577,7 @@
         <v>5.4749999999999996</v>
       </c>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>138</v>
       </c>
@@ -22663,7 +22663,7 @@
         <v>5.1599999999999993</v>
       </c>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>138</v>
       </c>
@@ -22749,7 +22749,7 @@
         <v>5.1599999999999993</v>
       </c>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>139</v>
       </c>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>139</v>
       </c>
@@ -22903,7 +22903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>139</v>
       </c>
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>139</v>
       </c>
@@ -23057,7 +23057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>140</v>
       </c>
@@ -23149,7 +23149,7 @@
         <v>5.0249999999999995</v>
       </c>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>140</v>
       </c>
@@ -23241,7 +23241,7 @@
         <v>5.0249999999999995</v>
       </c>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>141</v>
       </c>
@@ -23333,7 +23333,7 @@
         <v>4.9050000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>141</v>
       </c>
@@ -23425,7 +23425,7 @@
         <v>4.9050000000000002</v>
       </c>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>141</v>
       </c>
@@ -23517,7 +23517,7 @@
         <v>4.9050000000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>142</v>
       </c>
@@ -23609,7 +23609,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>142</v>
       </c>
@@ -23701,7 +23701,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>143</v>
       </c>
@@ -23796,7 +23796,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>143</v>
       </c>
@@ -23891,7 +23891,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>144</v>
       </c>
@@ -23986,7 +23986,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>144</v>
       </c>
@@ -24081,7 +24081,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>144</v>
       </c>
@@ -24176,7 +24176,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>144</v>
       </c>
@@ -24271,7 +24271,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>144</v>
       </c>
@@ -24366,7 +24366,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>145</v>
       </c>
@@ -24443,7 +24443,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>145</v>
       </c>
@@ -24520,7 +24520,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>145</v>
       </c>
@@ -24597,7 +24597,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>145</v>
       </c>
@@ -24674,7 +24674,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>146</v>
       </c>
@@ -24766,7 +24766,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>146</v>
       </c>
@@ -24858,7 +24858,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>146</v>
       </c>
@@ -24950,7 +24950,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>146</v>
       </c>
@@ -25042,7 +25042,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>148</v>
       </c>
@@ -25128,7 +25128,7 @@
         <v>5.4749999999999996</v>
       </c>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>148</v>
       </c>
@@ -25214,7 +25214,7 @@
         <v>5.4749999999999996</v>
       </c>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>148</v>
       </c>
@@ -25300,7 +25300,7 @@
         <v>5.4749999999999996</v>
       </c>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>148</v>
       </c>
@@ -25386,7 +25386,7 @@
         <v>5.4749999999999996</v>
       </c>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>149</v>
       </c>
@@ -25478,7 +25478,7 @@
         <v>5.3550000000000004</v>
       </c>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>149</v>
       </c>
@@ -25570,7 +25570,7 @@
         <v>5.3550000000000004</v>
       </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>149</v>
       </c>
@@ -25662,7 +25662,7 @@
         <v>5.3550000000000004</v>
       </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>150</v>
       </c>
@@ -25754,7 +25754,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>150</v>
       </c>
@@ -25846,7 +25846,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>150</v>
       </c>
@@ -25938,7 +25938,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>151</v>
       </c>
@@ -26024,7 +26024,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>151</v>
       </c>
@@ -26110,7 +26110,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>151</v>
       </c>
@@ -26196,7 +26196,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>152</v>
       </c>
@@ -26288,7 +26288,7 @@
         <v>5.4300000000000006</v>
       </c>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>152</v>
       </c>
@@ -26380,7 +26380,7 @@
         <v>5.4300000000000006</v>
       </c>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>153</v>
       </c>
@@ -26475,7 +26475,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>153</v>
       </c>
@@ -26570,7 +26570,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>153</v>
       </c>
@@ -26665,7 +26665,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>154</v>
       </c>
@@ -26760,7 +26760,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>154</v>
       </c>
@@ -26855,7 +26855,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>154</v>
       </c>
@@ -26950,7 +26950,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>155</v>
       </c>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>155</v>
       </c>
@@ -27104,7 +27104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>155</v>
       </c>
@@ -27181,7 +27181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>155</v>
       </c>
@@ -27258,7 +27258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>156</v>
       </c>
@@ -27341,7 +27341,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>156</v>
       </c>
@@ -27424,7 +27424,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>156</v>
       </c>
@@ -27507,7 +27507,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="302" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>156</v>
       </c>
@@ -27590,7 +27590,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>157</v>
       </c>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>157</v>
       </c>
@@ -27744,7 +27744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>157</v>
       </c>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>157</v>
       </c>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>158</v>
       </c>
@@ -27990,7 +27990,7 @@
         <v>5.2349999999999994</v>
       </c>
     </row>
-    <row r="308" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>158</v>
       </c>
@@ -28082,7 +28082,7 @@
         <v>5.2349999999999994</v>
       </c>
     </row>
-    <row r="309" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>158</v>
       </c>
@@ -28174,7 +28174,7 @@
         <v>5.2349999999999994</v>
       </c>
     </row>
-    <row r="310" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>159</v>
       </c>
@@ -28266,7 +28266,7 @@
         <v>5.8949999999999996</v>
       </c>
     </row>
-    <row r="311" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>159</v>
       </c>
@@ -28358,7 +28358,7 @@
         <v>5.8949999999999996</v>
       </c>
     </row>
-    <row r="312" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>159</v>
       </c>
@@ -28450,7 +28450,7 @@
         <v>5.8949999999999996</v>
       </c>
     </row>
-    <row r="313" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>160</v>
       </c>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>160</v>
       </c>
@@ -28604,7 +28604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>160</v>
       </c>
@@ -28681,7 +28681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>160</v>
       </c>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>161</v>
       </c>
@@ -28853,7 +28853,7 @@
         <v>5.4300000000000006</v>
       </c>
     </row>
-    <row r="318" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>161</v>
       </c>
@@ -28948,7 +28948,7 @@
         <v>5.4300000000000006</v>
       </c>
     </row>
-    <row r="319" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>161</v>
       </c>
@@ -29043,7 +29043,7 @@
         <v>5.4300000000000006</v>
       </c>
     </row>
-    <row r="320" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>161</v>
       </c>
@@ -29138,7 +29138,7 @@
         <v>5.4300000000000006</v>
       </c>
     </row>
-    <row r="321" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>162</v>
       </c>
@@ -29233,7 +29233,7 @@
         <v>4.6499999999999995</v>
       </c>
     </row>
-    <row r="322" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>162</v>
       </c>
@@ -29328,7 +29328,7 @@
         <v>4.6499999999999995</v>
       </c>
     </row>
-    <row r="323" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>163</v>
       </c>
@@ -29423,7 +29423,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="324" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>163</v>
       </c>
@@ -29518,7 +29518,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="325" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>164</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="326" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>164</v>
       </c>
@@ -29684,7 +29684,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="327" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>164</v>
       </c>
@@ -29767,7 +29767,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="328" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>164</v>
       </c>
@@ -29850,7 +29850,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="329" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>166</v>
       </c>
@@ -29942,7 +29942,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="330" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>166</v>
       </c>
@@ -30034,7 +30034,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="331" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>166</v>
       </c>
@@ -30126,7 +30126,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="332" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>166</v>
       </c>
@@ -30218,7 +30218,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="333" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>168</v>
       </c>
@@ -30313,7 +30313,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="334" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>168</v>
       </c>
@@ -30408,7 +30408,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="335" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>168</v>
       </c>
@@ -30503,7 +30503,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="336" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>169</v>
       </c>
@@ -30598,7 +30598,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="337" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>169</v>
       </c>
@@ -30693,7 +30693,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="338" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>170</v>
       </c>
@@ -30776,7 +30776,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="339" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>170</v>
       </c>
@@ -30859,7 +30859,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="340" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>170</v>
       </c>
@@ -30942,7 +30942,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="341" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>170</v>
       </c>
@@ -31025,7 +31025,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="342" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>171</v>
       </c>
@@ -31117,7 +31117,7 @@
         <v>5.0249999999999995</v>
       </c>
     </row>
-    <row r="343" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>171</v>
       </c>
@@ -31209,7 +31209,7 @@
         <v>5.0249999999999995</v>
       </c>
     </row>
-    <row r="344" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>171</v>
       </c>
@@ -31301,7 +31301,7 @@
         <v>5.0249999999999995</v>
       </c>
     </row>
-    <row r="345" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>172</v>
       </c>
@@ -31384,7 +31384,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="346" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>172</v>
       </c>
@@ -31467,7 +31467,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="347" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>172</v>
       </c>
@@ -31550,7 +31550,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="348" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>172</v>
       </c>
@@ -31633,7 +31633,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="349" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>173</v>
       </c>
@@ -31707,7 +31707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>173</v>
       </c>
@@ -31781,7 +31781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>174</v>
       </c>
@@ -31852,7 +31852,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="352" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>174</v>
       </c>
@@ -31923,7 +31923,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="353" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>174</v>
       </c>
@@ -31994,7 +31994,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="354" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>175</v>
       </c>
@@ -32089,7 +32089,7 @@
         <v>4.9949999999999992</v>
       </c>
     </row>
-    <row r="355" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>175</v>
       </c>
@@ -32184,7 +32184,7 @@
         <v>4.9949999999999992</v>
       </c>
     </row>
-    <row r="356" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>175</v>
       </c>
@@ -32279,7 +32279,7 @@
         <v>4.9949999999999992</v>
       </c>
     </row>
-    <row r="357" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>176</v>
       </c>
@@ -32374,7 +32374,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="358" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>176</v>
       </c>
@@ -32469,7 +32469,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="359" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>176</v>
       </c>
@@ -32564,7 +32564,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="360" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>176</v>
       </c>
@@ -32659,7 +32659,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>177</v>
       </c>
@@ -32736,7 +32736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>177</v>
       </c>
@@ -32813,7 +32813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>177</v>
       </c>
@@ -32890,7 +32890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>177</v>
       </c>
@@ -32967,7 +32967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>178</v>
       </c>
@@ -33062,7 +33062,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="366" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>178</v>
       </c>
@@ -33157,7 +33157,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="367" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>180</v>
       </c>
@@ -33237,7 +33237,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="368" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>180</v>
       </c>
@@ -33317,7 +33317,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="369" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>180</v>
       </c>
@@ -33397,7 +33397,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="370" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>180</v>
       </c>
@@ -33477,7 +33477,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="371" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>181</v>
       </c>
@@ -33572,7 +33572,7 @@
         <v>4.9050000000000002</v>
       </c>
     </row>
-    <row r="372" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>181</v>
       </c>
@@ -33667,7 +33667,7 @@
         <v>4.9050000000000002</v>
       </c>
     </row>
-    <row r="373" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>181</v>
       </c>
@@ -33762,7 +33762,7 @@
         <v>4.9050000000000002</v>
       </c>
     </row>
-    <row r="374" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>181</v>
       </c>
@@ -33857,7 +33857,7 @@
         <v>4.9050000000000002</v>
       </c>
     </row>
-    <row r="375" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>182</v>
       </c>
@@ -33952,7 +33952,7 @@
         <v>5.294999999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>182</v>
       </c>
@@ -34047,7 +34047,7 @@
         <v>5.294999999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>182</v>
       </c>
@@ -34142,7 +34142,7 @@
         <v>5.294999999999999</v>
       </c>
     </row>
-    <row r="378" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>183</v>
       </c>
@@ -34237,7 +34237,7 @@
         <v>5.7449999999999992</v>
       </c>
     </row>
-    <row r="379" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>183</v>
       </c>
@@ -34332,7 +34332,7 @@
         <v>5.7449999999999992</v>
       </c>
     </row>
-    <row r="380" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>184</v>
       </c>
@@ -34409,7 +34409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>184</v>
       </c>
@@ -34486,7 +34486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>184</v>
       </c>
@@ -34563,7 +34563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>184</v>
       </c>
@@ -34640,7 +34640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>185</v>
       </c>
@@ -34735,7 +34735,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="385" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>185</v>
       </c>
@@ -34830,7 +34830,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="386" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>185</v>
       </c>
@@ -34925,7 +34925,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="387" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>185</v>
       </c>
@@ -35020,7 +35020,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="388" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>186</v>
       </c>
@@ -35097,7 +35097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>186</v>
       </c>
@@ -35174,7 +35174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>186</v>
       </c>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>186</v>
       </c>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>187</v>
       </c>
@@ -35405,7 +35405,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="393" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>187</v>
       </c>
@@ -35482,7 +35482,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="394" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>187</v>
       </c>
@@ -35559,7 +35559,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="395" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>187</v>
       </c>
@@ -35636,7 +35636,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="396" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>188</v>
       </c>
@@ -35719,7 +35719,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="397" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>188</v>
       </c>
@@ -35802,7 +35802,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="398" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>188</v>
       </c>
@@ -35860,9 +35860,6 @@
       <c r="W398">
         <v>4</v>
       </c>
-      <c r="X398" t="s">
-        <v>179</v>
-      </c>
       <c r="Y398">
         <v>35</v>
       </c>
@@ -35885,7 +35882,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="399" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>188</v>
       </c>
@@ -35943,9 +35940,6 @@
       <c r="W399">
         <v>2.5</v>
       </c>
-      <c r="X399" t="s">
-        <v>179</v>
-      </c>
       <c r="Y399">
         <v>35</v>
       </c>
@@ -35968,7 +35962,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="400" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>189</v>
       </c>
@@ -36054,7 +36048,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="401" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>189</v>
       </c>
@@ -36140,7 +36134,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="402" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>189</v>
       </c>
@@ -36226,7 +36220,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="403" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>190</v>
       </c>
@@ -36303,7 +36297,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="404" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>190</v>
       </c>
@@ -36380,7 +36374,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="405" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>190</v>
       </c>
@@ -36457,7 +36451,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="406" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>190</v>
       </c>
@@ -36534,7 +36528,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="407" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>191</v>
       </c>
@@ -36611,7 +36605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>191</v>
       </c>
@@ -36688,7 +36682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>191</v>
       </c>
@@ -36765,7 +36759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>191</v>
       </c>
@@ -36842,7 +36836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>192</v>
       </c>
@@ -36937,7 +36931,7 @@
         <v>5.2050000000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>192</v>
       </c>
@@ -37032,7 +37026,7 @@
         <v>5.2050000000000001</v>
       </c>
     </row>
-    <row r="413" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>193</v>
       </c>
@@ -37124,7 +37118,7 @@
         <v>5.3699999999999992</v>
       </c>
     </row>
-    <row r="414" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>193</v>
       </c>
@@ -37216,7 +37210,7 @@
         <v>5.3699999999999992</v>
       </c>
     </row>
-    <row r="415" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>193</v>
       </c>
@@ -37308,7 +37302,7 @@
         <v>5.3699999999999992</v>
       </c>
     </row>
-    <row r="416" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>194</v>
       </c>
@@ -37403,7 +37397,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="417" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>194</v>
       </c>
@@ -37498,7 +37492,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="418" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>194</v>
       </c>
@@ -37593,7 +37587,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="419" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>195</v>
       </c>
@@ -37688,7 +37682,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="420" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>195</v>
       </c>
@@ -37783,7 +37777,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="421" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>195</v>
       </c>
@@ -37878,7 +37872,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="422" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>196</v>
       </c>
@@ -37955,7 +37949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>196</v>
       </c>
@@ -38032,7 +38026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>196</v>
       </c>
@@ -38109,7 +38103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>196</v>
       </c>
@@ -38186,7 +38180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>197</v>
       </c>
@@ -38257,7 +38251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>197</v>
       </c>
@@ -38328,7 +38322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>198</v>
       </c>
@@ -38405,7 +38399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>198</v>
       </c>
@@ -38482,7 +38476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>198</v>
       </c>
@@ -38559,7 +38553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>198</v>
       </c>
@@ -38636,7 +38630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>199</v>
       </c>
@@ -38728,7 +38722,7 @@
         <v>5.4749999999999996</v>
       </c>
     </row>
-    <row r="433" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>199</v>
       </c>
@@ -38820,7 +38814,7 @@
         <v>5.4749999999999996</v>
       </c>
     </row>
-    <row r="434" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>200</v>
       </c>
@@ -38906,7 +38900,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="435" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>200</v>
       </c>
@@ -38992,7 +38986,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="436" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>200</v>
       </c>
@@ -39078,7 +39072,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="437" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>201</v>
       </c>
@@ -39161,7 +39155,7 @@
         <v>4.6499999999999995</v>
       </c>
     </row>
-    <row r="438" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>201</v>
       </c>
@@ -39244,7 +39238,7 @@
         <v>4.6499999999999995</v>
       </c>
     </row>
-    <row r="439" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>201</v>
       </c>
@@ -39302,9 +39296,6 @@
       <c r="W439">
         <v>4.5</v>
       </c>
-      <c r="X439" t="s">
-        <v>179</v>
-      </c>
       <c r="Y439">
         <v>34.5</v>
       </c>
@@ -39327,7 +39318,7 @@
         <v>4.6499999999999995</v>
       </c>
     </row>
-    <row r="440" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>201</v>
       </c>
@@ -39410,7 +39401,7 @@
         <v>4.6499999999999995</v>
       </c>
     </row>
-    <row r="441" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>202</v>
       </c>
@@ -39502,7 +39493,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="442" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>202</v>
       </c>
@@ -39594,7 +39585,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="443" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>202</v>
       </c>
@@ -39686,7 +39677,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="444" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>203</v>
       </c>
@@ -39781,7 +39772,7 @@
         <v>5.0249999999999995</v>
       </c>
     </row>
-    <row r="445" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>203</v>
       </c>
@@ -39876,7 +39867,7 @@
         <v>5.0249999999999995</v>
       </c>
     </row>
-    <row r="446" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>204</v>
       </c>
@@ -39971,7 +39962,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="447" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>204</v>
       </c>
@@ -40066,7 +40057,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="448" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>204</v>
       </c>
@@ -40161,7 +40152,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="449" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>204</v>
       </c>
@@ -40256,7 +40247,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>205</v>
       </c>
@@ -40339,7 +40330,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="451" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>205</v>
       </c>
@@ -40422,7 +40413,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="452" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>205</v>
       </c>
@@ -40505,7 +40496,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="453" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>205</v>
       </c>
@@ -40588,7 +40579,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="454" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>206</v>
       </c>
@@ -40680,7 +40671,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="455" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>206</v>
       </c>
@@ -40772,7 +40763,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="456" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>206</v>
       </c>
@@ -40864,7 +40855,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="457" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>207</v>
       </c>
@@ -40956,7 +40947,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="458" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>207</v>
       </c>
@@ -41048,7 +41039,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="459" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>207</v>
       </c>
@@ -41140,7 +41131,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="460" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>208</v>
       </c>
@@ -41235,7 +41226,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="461" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>208</v>
       </c>
@@ -41330,7 +41321,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="462" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>209</v>
       </c>
@@ -41425,7 +41416,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="463" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>209</v>
       </c>
@@ -41520,7 +41511,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="464" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>210</v>
       </c>
@@ -41612,7 +41603,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="465" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>210</v>
       </c>
@@ -41704,7 +41695,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="466" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>210</v>
       </c>
@@ -41796,7 +41787,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="467" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>210</v>
       </c>
@@ -41888,7 +41879,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="468" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>211</v>
       </c>
@@ -41968,7 +41959,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="469" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>211</v>
       </c>
@@ -42048,7 +42039,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="470" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>211</v>
       </c>
@@ -42128,7 +42119,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="471" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>211</v>
       </c>
@@ -42208,7 +42199,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="472" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>212</v>
       </c>
@@ -42300,7 +42291,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="473" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>212</v>
       </c>
@@ -42392,7 +42383,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="474" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>212</v>
       </c>
@@ -42484,7 +42475,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="475" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>213</v>
       </c>
@@ -42561,7 +42552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>213</v>
       </c>
@@ -42638,7 +42629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>213</v>
       </c>
@@ -42715,7 +42706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>213</v>
       </c>
@@ -42792,7 +42783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>214</v>
       </c>
@@ -42887,7 +42878,7 @@
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="480" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>214</v>
       </c>
@@ -42982,7 +42973,7 @@
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="481" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>214</v>
       </c>
@@ -43077,7 +43068,7 @@
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="482" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>215</v>
       </c>
@@ -43169,7 +43160,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="483" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>215</v>
       </c>
@@ -43261,7 +43252,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="484" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>215</v>
       </c>
@@ -43353,7 +43344,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="485" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>216</v>
       </c>
@@ -43436,7 +43427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>216</v>
       </c>
@@ -43519,7 +43510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>216</v>
       </c>
@@ -43602,7 +43593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>216</v>
       </c>
@@ -43685,7 +43676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>217</v>
       </c>
@@ -43780,7 +43771,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="490" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>217</v>
       </c>
@@ -43875,7 +43866,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="491" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>217</v>
       </c>
@@ -43970,7 +43961,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="492" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>218</v>
       </c>
@@ -44062,7 +44053,7 @@
         <v>5.3550000000000004</v>
       </c>
     </row>
-    <row r="493" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>218</v>
       </c>
@@ -44154,7 +44145,7 @@
         <v>5.3550000000000004</v>
       </c>
     </row>
-    <row r="494" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>218</v>
       </c>
@@ -44246,7 +44237,7 @@
         <v>5.3550000000000004</v>
       </c>
     </row>
-    <row r="495" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>219</v>
       </c>
@@ -44332,7 +44323,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="496" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>219</v>
       </c>
@@ -44418,7 +44409,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="497" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>219</v>
       </c>
@@ -44504,7 +44495,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="498" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>220</v>
       </c>
@@ -44596,7 +44587,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="499" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>220</v>
       </c>
@@ -44688,7 +44679,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="500" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>220</v>
       </c>
@@ -44780,7 +44771,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="501" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>221</v>
       </c>
@@ -44875,7 +44866,7 @@
         <v>5.4749999999999996</v>
       </c>
     </row>
-    <row r="502" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>221</v>
       </c>
@@ -44970,7 +44961,7 @@
         <v>5.4749999999999996</v>
       </c>
     </row>
-    <row r="503" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>222</v>
       </c>
@@ -45062,7 +45053,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="504" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>222</v>
       </c>
@@ -45154,7 +45145,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="505" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>222</v>
       </c>
@@ -45246,7 +45237,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="506" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>222</v>
       </c>
@@ -45338,7 +45329,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="507" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>223</v>
       </c>
@@ -45421,7 +45412,7 @@
         <v>4.6499999999999995</v>
       </c>
     </row>
-    <row r="508" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>223</v>
       </c>
@@ -45504,7 +45495,7 @@
         <v>4.6499999999999995</v>
       </c>
     </row>
-    <row r="509" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>224</v>
       </c>
@@ -45590,7 +45581,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="510" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>224</v>
       </c>
@@ -45676,7 +45667,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="511" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>225</v>
       </c>
@@ -45771,7 +45762,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="512" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>225</v>
       </c>
@@ -45866,7 +45857,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="513" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>226</v>
       </c>
@@ -45958,7 +45949,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="514" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>226</v>
       </c>
@@ -46050,7 +46041,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="515" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>226</v>
       </c>
@@ -46142,7 +46133,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="516" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>227</v>
       </c>
@@ -46213,7 +46204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>227</v>
       </c>
@@ -46284,7 +46275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>228</v>
       </c>
@@ -46376,7 +46367,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="519" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>228</v>
       </c>
@@ -46468,7 +46459,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="520" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>228</v>
       </c>
@@ -46560,7 +46551,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="521" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>229</v>
       </c>
@@ -46655,7 +46646,7 @@
         <v>5.0550000000000006</v>
       </c>
     </row>
-    <row r="522" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>229</v>
       </c>
@@ -46750,7 +46741,7 @@
         <v>5.0550000000000006</v>
       </c>
     </row>
-    <row r="523" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>229</v>
       </c>
@@ -46845,7 +46836,7 @@
         <v>5.0550000000000006</v>
       </c>
     </row>
-    <row r="524" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>229</v>
       </c>
@@ -46940,7 +46931,7 @@
         <v>5.0550000000000006</v>
       </c>
     </row>
-    <row r="525" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>230</v>
       </c>
@@ -47026,7 +47017,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="526" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>230</v>
       </c>
@@ -47112,7 +47103,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="527" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>230</v>
       </c>
@@ -47198,7 +47189,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="528" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>230</v>
       </c>
@@ -47284,7 +47275,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="529" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>231</v>
       </c>
@@ -47379,7 +47370,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="530" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>231</v>
       </c>
@@ -47474,7 +47465,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="531" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>231</v>
       </c>
@@ -47569,7 +47560,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="532" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>232</v>
       </c>
@@ -47655,7 +47646,7 @@
         <v>4.6950000000000003</v>
       </c>
     </row>
-    <row r="533" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>232</v>
       </c>
@@ -47741,7 +47732,7 @@
         <v>4.6950000000000003</v>
       </c>
     </row>
-    <row r="534" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>233</v>
       </c>
@@ -47833,7 +47824,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="535" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>233</v>
       </c>
@@ -47925,7 +47916,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="536" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>233</v>
       </c>
@@ -48017,7 +48008,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="537" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>233</v>
       </c>
@@ -48109,7 +48100,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="538" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>234</v>
       </c>
@@ -48186,7 +48177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>234</v>
       </c>
@@ -48263,7 +48254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>234</v>
       </c>
@@ -48340,7 +48331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>234</v>
       </c>
@@ -48417,7 +48408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>235</v>
       </c>
@@ -48512,7 +48503,7 @@
         <v>4.8449999999999998</v>
       </c>
     </row>
-    <row r="543" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>235</v>
       </c>
@@ -48607,7 +48598,7 @@
         <v>4.8449999999999998</v>
       </c>
     </row>
-    <row r="544" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>236</v>
       </c>
@@ -48702,7 +48693,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="545" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>236</v>
       </c>
@@ -48797,7 +48788,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="546" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>237</v>
       </c>
@@ -48874,7 +48865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>237</v>
       </c>
@@ -48951,7 +48942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>237</v>
       </c>
@@ -49028,7 +49019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>237</v>
       </c>
@@ -49105,7 +49096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>238</v>
       </c>
@@ -49191,7 +49182,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="551" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>238</v>
       </c>
@@ -49277,7 +49268,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="552" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>238</v>
       </c>
@@ -49363,7 +49354,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="553" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>238</v>
       </c>
@@ -49449,7 +49440,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="554" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>239</v>
       </c>
@@ -49544,7 +49535,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="555" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>239</v>
       </c>
@@ -49639,7 +49630,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="556" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>240</v>
       </c>
@@ -49731,7 +49722,7 @@
         <v>4.6499999999999995</v>
       </c>
     </row>
-    <row r="557" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>240</v>
       </c>
@@ -49823,7 +49814,7 @@
         <v>4.6499999999999995</v>
       </c>
     </row>
-    <row r="558" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>240</v>
       </c>
@@ -49915,7 +49906,7 @@
         <v>4.6499999999999995</v>
       </c>
     </row>
-    <row r="559" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>241</v>
       </c>
@@ -50010,7 +50001,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="560" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>241</v>
       </c>
@@ -50105,7 +50096,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>242</v>
       </c>
@@ -50197,7 +50188,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="562" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>242</v>
       </c>
@@ -50289,7 +50280,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="563" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>242</v>
       </c>
@@ -50381,7 +50372,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="564" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>242</v>
       </c>
@@ -50473,7 +50464,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="565" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>243</v>
       </c>
@@ -50568,7 +50559,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="566" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>243</v>
       </c>
@@ -50663,7 +50654,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="567" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>243</v>
       </c>
@@ -50758,7 +50749,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="568" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>243</v>
       </c>
@@ -50853,7 +50844,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="569" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>244</v>
       </c>
@@ -50933,7 +50924,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="570" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>245</v>
       </c>
@@ -51028,7 +51019,7 @@
         <v>4.9649999999999999</v>
       </c>
     </row>
-    <row r="571" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>245</v>
       </c>
@@ -51123,7 +51114,7 @@
         <v>4.9649999999999999</v>
       </c>
     </row>
-    <row r="572" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>245</v>
       </c>
@@ -51218,7 +51209,7 @@
         <v>4.9649999999999999</v>
       </c>
     </row>
-    <row r="573" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>246</v>
       </c>
@@ -51313,7 +51304,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="574" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>246</v>
       </c>
@@ -51408,7 +51399,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="575" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>247</v>
       </c>
@@ -51503,7 +51494,7 @@
         <v>5.669999999999999</v>
       </c>
     </row>
-    <row r="576" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>247</v>
       </c>
@@ -51598,7 +51589,7 @@
         <v>5.669999999999999</v>
       </c>
     </row>
-    <row r="577" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>248</v>
       </c>
@@ -51678,7 +51669,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="578" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>248</v>
       </c>
@@ -51758,7 +51749,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="579" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>248</v>
       </c>
@@ -51838,7 +51829,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="580" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>248</v>
       </c>
@@ -51918,7 +51909,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="581" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>249</v>
       </c>
@@ -51995,7 +51986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>249</v>
       </c>
@@ -52072,7 +52063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>249</v>
       </c>
@@ -52149,7 +52140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>249</v>
       </c>
@@ -52226,7 +52217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>250</v>
       </c>
@@ -52312,7 +52303,7 @@
         <v>5.669999999999999</v>
       </c>
     </row>
-    <row r="586" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>250</v>
       </c>
@@ -52398,7 +52389,7 @@
         <v>5.669999999999999</v>
       </c>
     </row>
-    <row r="587" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>250</v>
       </c>
@@ -52484,7 +52475,7 @@
         <v>5.669999999999999</v>
       </c>
     </row>
-    <row r="588" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>250</v>
       </c>
@@ -52570,7 +52561,7 @@
         <v>5.669999999999999</v>
       </c>
     </row>
-    <row r="589" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>251</v>
       </c>
@@ -52665,7 +52656,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="590" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>251</v>
       </c>
@@ -52760,7 +52751,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="591" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>251</v>
       </c>
@@ -52855,7 +52846,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="592" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>252</v>
       </c>
@@ -52938,7 +52929,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="593" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>252</v>
       </c>
@@ -53021,7 +53012,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="594" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>252</v>
       </c>
@@ -53104,7 +53095,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="595" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>252</v>
       </c>
@@ -53187,7 +53178,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="596" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>253</v>
       </c>
@@ -53282,7 +53273,7 @@
         <v>5.0249999999999995</v>
       </c>
     </row>
-    <row r="597" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>253</v>
       </c>
@@ -53377,7 +53368,7 @@
         <v>5.0249999999999995</v>
       </c>
     </row>
-    <row r="598" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>253</v>
       </c>
@@ -53472,7 +53463,7 @@
         <v>5.0249999999999995</v>
       </c>
     </row>
-    <row r="599" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>254</v>
       </c>
@@ -53567,7 +53558,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="600" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>254</v>
       </c>
@@ -53662,7 +53653,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="601" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>255</v>
       </c>
@@ -53739,7 +53730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>255</v>
       </c>
@@ -53816,7 +53807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>255</v>
       </c>
@@ -53893,7 +53884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>255</v>
       </c>
@@ -53970,7 +53961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>256</v>
       </c>
@@ -54047,7 +54038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>256</v>
       </c>
@@ -54124,7 +54115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>256</v>
       </c>
@@ -54201,7 +54192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>256</v>
       </c>
@@ -54278,7 +54269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>257</v>
       </c>
@@ -54361,7 +54352,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="610" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>257</v>
       </c>
@@ -54444,7 +54435,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="611" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>257</v>
       </c>
@@ -54527,7 +54518,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="612" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>257</v>
       </c>
@@ -54610,7 +54601,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="613" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>258</v>
       </c>
@@ -54696,7 +54687,7 @@
         <v>5.2050000000000001</v>
       </c>
     </row>
-    <row r="614" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>258</v>
       </c>
@@ -54782,7 +54773,7 @@
         <v>5.2050000000000001</v>
       </c>
     </row>
-    <row r="615" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>258</v>
       </c>
@@ -54868,7 +54859,7 @@
         <v>5.2050000000000001</v>
       </c>
     </row>
-    <row r="616" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>258</v>
       </c>
@@ -54954,7 +54945,7 @@
         <v>5.2050000000000001</v>
       </c>
     </row>
-    <row r="617" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>258</v>
       </c>
@@ -55040,7 +55031,7 @@
         <v>5.2050000000000001</v>
       </c>
     </row>
-    <row r="618" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>259</v>
       </c>
@@ -55132,7 +55123,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="619" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>259</v>
       </c>
@@ -55224,7 +55215,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="620" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>259</v>
       </c>
@@ -55316,7 +55307,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="621" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>259</v>
       </c>
@@ -55408,7 +55399,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="622" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>260</v>
       </c>
@@ -55494,7 +55485,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="623" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>260</v>
       </c>
@@ -55580,7 +55571,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="624" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>260</v>
       </c>
@@ -55666,7 +55657,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="625" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>260</v>
       </c>
@@ -55752,7 +55743,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="626" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>261</v>
       </c>
@@ -55823,7 +55814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>261</v>
       </c>
@@ -55894,7 +55885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>262</v>
       </c>
@@ -55980,7 +55971,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="629" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>262</v>
       </c>
@@ -56066,7 +56057,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="630" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>263</v>
       </c>
@@ -56152,7 +56143,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="631" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>263</v>
       </c>
@@ -56238,7 +56229,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="632" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>263</v>
       </c>
@@ -56324,7 +56315,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="633" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>264</v>
       </c>
@@ -56419,7 +56410,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="634" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>264</v>
       </c>
@@ -56514,7 +56505,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="635" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>265</v>
       </c>
@@ -56609,7 +56600,7 @@
         <v>5.5049999999999999</v>
       </c>
     </row>
-    <row r="636" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>265</v>
       </c>
@@ -56704,7 +56695,7 @@
         <v>5.5049999999999999</v>
       </c>
     </row>
-    <row r="637" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>265</v>
       </c>
@@ -56799,7 +56790,7 @@
         <v>5.5049999999999999</v>
       </c>
     </row>
-    <row r="638" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>265</v>
       </c>
